--- a/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/typed-dimensions-2018-1.xlsx
+++ b/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/typed-dimensions-2018-1.xlsx
@@ -17,11 +17,35 @@
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <name val="Arial"/>
       <sz val="11"/>
       <family val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+      <b val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+      <b val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+      <b val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -52,10 +76,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" numFmtId="0" fontId="1" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" numFmtId="0" fontId="2" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" numFmtId="0" fontId="3" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" numFmtId="0" fontId="4" fillId="0" applyNumberFormat="0" applyFill="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0"/>
@@ -76,89 +104,89 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="35.2"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="17.6"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="9.9"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="13.200000000000001"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="29.700000000000003"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="26.4"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="23.099999999999998"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="14.85"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="19.799999999999997"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="23.1"/>
-    <col min="8" max="8" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="9" max="9" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="10" max="10" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="11" max="11" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="12" max="12" bestFit="1" customWidth="1" width="11.0"/>
-    <col min="13" max="13" bestFit="1" customWidth="1" width="14.3"/>
-    <col min="14" max="14" bestFit="1" customWidth="1" width="18.700000000000003"/>
+    <col min="8" max="8" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="9" max="9" bestFit="1" customWidth="1" width="21.45"/>
+    <col min="10" max="10" bestFit="1" customWidth="1" width="24.75"/>
+    <col min="11" max="11" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="12" max="12" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="13" max="13" bestFit="1" customWidth="1" width="21.45"/>
+    <col min="14" max="14" bestFit="1" customWidth="1" width="28.049999999999997"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>CODEVALUE</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>INFORMATIONDOMAIN</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>LANGUAGECODE</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>DEFAULTCODE</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>PREFLABEL_FI</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>PREFLABEL_EN</t>
         </is>
       </c>
-      <c r="I1" s="0" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>DESCRIPTION_FI</t>
         </is>
       </c>
-      <c r="J1" s="0" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>DESCRIPTION_EN</t>
         </is>
       </c>
-      <c r="K1" s="0" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>STARTDATE</t>
         </is>
       </c>
-      <c r="L1" s="0" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>ENDDATE</t>
         </is>
       </c>
-      <c r="M1" s="0" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>CODESSHEET</t>
         </is>
       </c>
-      <c r="N1" s="0" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>EXTENSIONSSHEET</t>
         </is>
@@ -167,7 +195,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>86943ae3-6d4e-477d-808f-e8e91d2e3f77</t>
+          <t>5ff6f24a-1497-4f88-a061-ba7745b976f3</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -236,65 +264,65 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="33.0"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="12.100000000000001"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="11.0"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="9.9"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="35.2"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="14.85"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="7" max="7" bestFit="1" customWidth="1" width="14.3"/>
-    <col min="8" max="8" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="9" max="9" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="10" max="10" bestFit="1" customWidth="1" width="11.0"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="7" max="7" bestFit="1" customWidth="1" width="21.45"/>
+    <col min="8" max="8" bestFit="1" customWidth="1" width="24.75"/>
+    <col min="9" max="9" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="10" max="10" bestFit="1" customWidth="1" width="16.5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>CODEVALUE</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>BROADER</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>PREFLABEL_FI</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>PREFLABEL_EN</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>DESCRIPTION_FI</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>DESCRIPTION_EN</t>
         </is>
       </c>
-      <c r="I1" s="0" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>STARTDATE</t>
         </is>
       </c>
-      <c r="J1" s="0" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>ENDDATE</t>
         </is>
@@ -303,7 +331,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>38fbe760-c5a3-45fd-8659-d7a988134d81</t>
+          <t>d9f6f365-03b9-43f5-8370-268380353e6e</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -339,7 +367,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>f0dd7dde-2fcd-452c-b0a8-3af11aaa3b0a</t>
+          <t>501cf0fd-9181-4860-95ac-ce438485b79a</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -392,59 +420,59 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="30.800000000000004"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="9.9"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="11.0"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="7" max="7" bestFit="1" customWidth="1" width="13.200000000000001"/>
-    <col min="8" max="8" bestFit="1" customWidth="1" width="11.0"/>
-    <col min="9" max="9" bestFit="1" customWidth="1" width="19.8"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="29.700000000000003"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="14.85"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="24.75"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="7" max="7" bestFit="1" customWidth="1" width="19.799999999999997"/>
+    <col min="8" max="8" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="9" max="9" bestFit="1" customWidth="1" width="24.75"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>CODEVALUE</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>PROPERTYTYPE</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>PREFLABEL_FI</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>PREFLABEL_EN</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>STARTDATE</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>ENDDATE</t>
         </is>
       </c>
-      <c r="I1" s="0" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>MEMBERSSHEET</t>
         </is>
@@ -453,7 +481,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>fb91d5c2-25a9-4dcb-a68c-dd018e00f5e2</t>
+          <t>14364d3f-ae3e-4532-85c7-aa4c2d88af74</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -501,23 +529,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="36.300000000000004"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="8.8"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="20.900000000000002"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="33.0"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="11.549999999999999"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="31.349999999999998"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>CODE</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>DPMDOMAINREFERENCE</t>
         </is>
@@ -526,7 +554,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>fec20bcf-4b79-4e0b-9e72-1d5e39b91a2c</t>
+          <t>8d3ba600-dfea-433c-965a-55d15191fc56</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -543,7 +571,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>b48026eb-3b60-49e9-91b9-907003c9c936</t>
+          <t>7c41c694-3725-43c4-8577-4eb2169f082a</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">

--- a/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/typed-dimensions-2018-1.xlsx
+++ b/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/typed-dimensions-2018-1.xlsx
@@ -104,7 +104,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="29.700000000000003"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="28.6"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="26.4"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="23.099999999999998"/>
@@ -195,7 +195,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>5ff6f24a-1497-4f88-a061-ba7745b976f3</t>
+          <t>bdd1aac0-ad7a-4e5f-8442-c493f0167c24</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -331,7 +331,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>d9f6f365-03b9-43f5-8370-268380353e6e</t>
+          <t>833dda2a-145f-439f-9e26-7235914121fa</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -367,7 +367,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>501cf0fd-9181-4860-95ac-ce438485b79a</t>
+          <t>2ecb13a0-83b3-442e-86a3-01549ed7d78d</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -420,7 +420,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="29.700000000000003"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="34.1"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="14.85"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="24.75"/>
@@ -481,7 +481,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>14364d3f-ae3e-4532-85c7-aa4c2d88af74</t>
+          <t>1fb961fc-4917-4978-936d-0a58dd65ee3d</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -529,7 +529,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="33.0"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="30.800000000000004"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="11.549999999999999"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="31.349999999999998"/>
   </cols>
@@ -554,7 +554,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>8d3ba600-dfea-433c-965a-55d15191fc56</t>
+          <t>7143cf0c-e938-4c64-8cd5-a9f13314994b</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -571,7 +571,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>7c41c694-3725-43c4-8577-4eb2169f082a</t>
+          <t>ec5f13d0-51ff-43b5-95aa-d0fbfef07552</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">

--- a/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/typed-dimensions-2018-1.xlsx
+++ b/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/typed-dimensions-2018-1.xlsx
@@ -104,7 +104,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="28.6"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="33.0"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="26.4"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="23.099999999999998"/>
@@ -195,7 +195,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>bdd1aac0-ad7a-4e5f-8442-c493f0167c24</t>
+          <t>85528a72-d49c-4255-abf6-83e10776f926</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -264,7 +264,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="35.2"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="34.1"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="14.85"/>
@@ -331,7 +331,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>833dda2a-145f-439f-9e26-7235914121fa</t>
+          <t>56843db2-1331-4f96-bfd1-9dbb4aa417d0</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -367,7 +367,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>2ecb13a0-83b3-442e-86a3-01549ed7d78d</t>
+          <t>f52af210-65e8-4395-8332-b8ab2588644b</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -481,7 +481,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>1fb961fc-4917-4978-936d-0a58dd65ee3d</t>
+          <t>823b3b57-9e89-43a6-9090-fbc7740e4f3e</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -529,7 +529,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="30.800000000000004"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="35.2"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="11.549999999999999"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="31.349999999999998"/>
   </cols>
@@ -554,7 +554,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>7143cf0c-e938-4c64-8cd5-a9f13314994b</t>
+          <t>da6fb479-c860-4e73-942b-0867434d32ca</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -571,7 +571,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>ec5f13d0-51ff-43b5-95aa-d0fbfef07552</t>
+          <t>6b66a84d-979e-4ae4-94b9-2174add97d27</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
